--- a/Maven23June/src/test/resources/AppTest.xlsx
+++ b/Maven23June/src/test/resources/AppTest.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaWorkspace\Maven23June\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B89AD3-4E14-4428-9618-34EE38AC7FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1763BB4-2AD1-47A7-AE24-9024FCBB2417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>url</t>
   </si>
@@ -59,47 +59,48 @@
     <t>Status</t>
   </si>
   <si>
+    <t>AppURL</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ExpectedTitle</t>
+  </si>
+  <si>
+    <t>ActualTitle</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>https://demo.vtiger.com/vtigercrm/index.php</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>AppURL</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ExpectedTitle</t>
-  </si>
-  <si>
-    <t>ActualTitle</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>https://demo.vtiger.com/vtigercrm/index.php</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,15 +454,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -489,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -501,9 +502,6 @@
       </c>
       <c r="C3">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -531,47 +529,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E8A7-4B91-4427-8216-5D97EE218806}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="61.77734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.21875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
@@ -579,7 +577,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -621,13 +619,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
@@ -635,7 +633,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>123</v>
